--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H2">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I2">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J2">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>72.55871638865999</v>
+        <v>2.049226377508444</v>
       </c>
       <c r="R2">
-        <v>653.02844749794</v>
+        <v>18.443037397576</v>
       </c>
       <c r="S2">
-        <v>0.683099089967421</v>
+        <v>0.01751475873857971</v>
       </c>
       <c r="T2">
-        <v>0.683099089967421</v>
+        <v>0.01751475873857971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H3">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I3">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J3">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>11.59117575276</v>
+        <v>0.2925146194859999</v>
       </c>
       <c r="R3">
-        <v>104.32058177484</v>
+        <v>2.632631575373999</v>
       </c>
       <c r="S3">
-        <v>0.1091243340903459</v>
+        <v>0.002500125434669613</v>
       </c>
       <c r="T3">
-        <v>0.1091243340903459</v>
+        <v>0.002500125434669613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +658,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H4">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I4">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J4">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>17.65897738993333</v>
+        <v>0.3469362574722222</v>
       </c>
       <c r="R4">
-        <v>158.9307965094</v>
+        <v>3.12242631725</v>
       </c>
       <c r="S4">
-        <v>0.1662492390328999</v>
+        <v>0.002965267729317379</v>
       </c>
       <c r="T4">
-        <v>0.1662492390328998</v>
+        <v>0.00296526772931738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -720,57 +723,57 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4394843333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.318453</v>
+      </c>
+      <c r="I5">
+        <v>0.0239109511018218</v>
+      </c>
+      <c r="J5">
+        <v>0.02391095110182181</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.1634746666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.490424</v>
-      </c>
-      <c r="I5">
-        <v>0.008997189726622102</v>
-      </c>
-      <c r="J5">
-        <v>0.0089971897266221</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>0.6811091884079998</v>
+        <v>0.03541291510611111</v>
       </c>
       <c r="R5">
-        <v>6.129982695671999</v>
+        <v>0.318716235955</v>
       </c>
       <c r="S5">
-        <v>0.006412256031070976</v>
+        <v>0.0003026745464146676</v>
       </c>
       <c r="T5">
-        <v>0.006412256031070974</v>
+        <v>0.0003026745464146678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,55 +782,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4394843333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.318453</v>
+      </c>
+      <c r="I6">
+        <v>0.0239109511018218</v>
+      </c>
+      <c r="J6">
+        <v>0.02391095110182181</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.1634746666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.490424</v>
-      </c>
-      <c r="I6">
-        <v>0.008997189726622102</v>
-      </c>
-      <c r="J6">
-        <v>0.0089971897266221</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>0.108806449488</v>
+        <v>0.07349057022</v>
       </c>
       <c r="R6">
-        <v>0.9792580453919999</v>
+        <v>0.6614151319799999</v>
       </c>
       <c r="S6">
-        <v>0.001024350902649859</v>
+        <v>0.0006281246528404334</v>
       </c>
       <c r="T6">
-        <v>0.001024350902649858</v>
+        <v>0.0006281246528404336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +844,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H7">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I7">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J7">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>0.1657649467466667</v>
+        <v>81.20258447468446</v>
       </c>
       <c r="R7">
-        <v>1.49188452072</v>
+        <v>730.8232602721602</v>
       </c>
       <c r="S7">
-        <v>0.001560582792901268</v>
+        <v>0.6940393172922525</v>
       </c>
       <c r="T7">
-        <v>0.001560582792901267</v>
+        <v>0.6940393172922528</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5108056666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H8">
-        <v>1.532417</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I8">
-        <v>0.02811331926924674</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J8">
-        <v>0.02811331926924674</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.166450999999999</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N8">
-        <v>12.499353</v>
+        <v>1.996758</v>
       </c>
       <c r="O8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q8">
-        <v>2.128246780689</v>
+        <v>11.59117575276</v>
       </c>
       <c r="R8">
-        <v>19.154221026201</v>
+        <v>104.32058177484</v>
       </c>
       <c r="S8">
-        <v>0.02003623425926482</v>
+        <v>0.09906989732042421</v>
       </c>
       <c r="T8">
-        <v>0.02003623425926482</v>
+        <v>0.09906989732042423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5108056666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H9">
-        <v>1.532417</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I9">
-        <v>0.02811331926924674</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J9">
-        <v>0.02811331926924674</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6655859999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N9">
-        <v>1.996758</v>
+        <v>2.36825</v>
       </c>
       <c r="O9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q9">
-        <v>0.339985100454</v>
+        <v>13.74768598722222</v>
       </c>
       <c r="R9">
-        <v>3.059865904086</v>
+        <v>123.729173885</v>
       </c>
       <c r="S9">
-        <v>0.003200766555441798</v>
+        <v>0.11750161227805</v>
       </c>
       <c r="T9">
-        <v>0.003200766555441798</v>
+        <v>0.1175016122780501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1027,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5108056666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H10">
-        <v>1.532417</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I10">
-        <v>0.02811331926924674</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J10">
-        <v>0.02811331926924674</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.01401</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N10">
-        <v>3.04203</v>
+        <v>0.241735</v>
       </c>
       <c r="O10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q10">
-        <v>0.5179620540566667</v>
+        <v>1.403271137811111</v>
       </c>
       <c r="R10">
-        <v>4.66165848651</v>
+        <v>12.6294402403</v>
       </c>
       <c r="S10">
-        <v>0.004876318454540117</v>
+        <v>0.01199377271995542</v>
       </c>
       <c r="T10">
-        <v>0.004876318454540117</v>
+        <v>0.01199377271995542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.41499333333334</v>
+      </c>
+      <c r="H11">
+        <v>52.24498000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.947494648725179</v>
+      </c>
+      <c r="J11">
+        <v>0.9474946487251791</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.08025166666666668</v>
-      </c>
-      <c r="H11">
-        <v>0.240755</v>
-      </c>
-      <c r="I11">
-        <v>0.004416827913464481</v>
-      </c>
-      <c r="J11">
-        <v>0.00441682791346448</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>4.166450999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N11">
-        <v>12.499353</v>
+        <v>0.50166</v>
       </c>
       <c r="O11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q11">
-        <v>0.334364636835</v>
+        <v>2.9121351852</v>
       </c>
       <c r="R11">
-        <v>3.009281731515</v>
+        <v>26.2092166668</v>
       </c>
       <c r="S11">
-        <v>0.003147853083781571</v>
+        <v>0.02489004911449661</v>
       </c>
       <c r="T11">
-        <v>0.00314785308378157</v>
+        <v>0.02489004911449661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1160,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08025166666666668</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H12">
-        <v>0.240755</v>
+        <v>0.490424</v>
       </c>
       <c r="I12">
-        <v>0.004416827913464481</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J12">
-        <v>0.00441682791346448</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6655859999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N12">
-        <v>1.996758</v>
+        <v>13.988392</v>
       </c>
       <c r="O12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q12">
-        <v>0.05341438581</v>
+        <v>0.762249239800889</v>
       </c>
       <c r="R12">
-        <v>0.48072947229</v>
+        <v>6.860243158208001</v>
       </c>
       <c r="S12">
-        <v>0.0005028660945782971</v>
+        <v>0.006514952023021841</v>
       </c>
       <c r="T12">
-        <v>0.0005028660945782969</v>
+        <v>0.006514952023021842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08025166666666668</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H13">
-        <v>0.240755</v>
+        <v>0.490424</v>
       </c>
       <c r="I13">
-        <v>0.004416827913464481</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J13">
-        <v>0.00441682791346448</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,524 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01401</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N13">
-        <v>3.04203</v>
+        <v>1.996758</v>
       </c>
       <c r="O13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q13">
-        <v>0.08137599251666669</v>
+        <v>0.108806449488</v>
       </c>
       <c r="R13">
-        <v>0.7323839326500001</v>
+        <v>0.979258045392</v>
       </c>
       <c r="S13">
-        <v>0.0007661087351046133</v>
+        <v>0.0009299698329575725</v>
       </c>
       <c r="T13">
-        <v>0.000766108735104613</v>
+        <v>0.0009299698329575726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1634746666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.490424</v>
+      </c>
+      <c r="I14">
+        <v>0.008894139027451004</v>
+      </c>
+      <c r="J14">
+        <v>0.008894139027451004</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N14">
+        <v>2.36825</v>
+      </c>
+      <c r="O14">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P14">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q14">
+        <v>0.1290496264444444</v>
+      </c>
+      <c r="R14">
+        <v>1.161446638</v>
+      </c>
+      <c r="S14">
+        <v>0.001102988472765238</v>
+      </c>
+      <c r="T14">
+        <v>0.001102988472765238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1634746666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.490424</v>
+      </c>
+      <c r="I15">
+        <v>0.008894139027451004</v>
+      </c>
+      <c r="J15">
+        <v>0.008894139027451004</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.241735</v>
+      </c>
+      <c r="O15">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P15">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q15">
+        <v>0.01317251618222222</v>
+      </c>
+      <c r="R15">
+        <v>0.11855264564</v>
+      </c>
+      <c r="S15">
+        <v>0.0001125856300913775</v>
+      </c>
+      <c r="T15">
+        <v>0.0001125856300913776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1634746666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.490424</v>
+      </c>
+      <c r="I16">
+        <v>0.008894139027451004</v>
+      </c>
+      <c r="J16">
+        <v>0.008894139027451004</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.16722</v>
+      </c>
+      <c r="N16">
+        <v>0.50166</v>
+      </c>
+      <c r="O16">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P16">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q16">
+        <v>0.02733623376000001</v>
+      </c>
+      <c r="R16">
+        <v>0.24602610384</v>
+      </c>
+      <c r="S16">
+        <v>0.0002336430686149728</v>
+      </c>
+      <c r="T16">
+        <v>0.0002336430686149729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3620916666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.086275</v>
+      </c>
+      <c r="I17">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="J17">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N17">
+        <v>13.988392</v>
+      </c>
+      <c r="O17">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P17">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q17">
+        <v>1.688360057755556</v>
+      </c>
+      <c r="R17">
+        <v>15.1952405198</v>
+      </c>
+      <c r="S17">
+        <v>0.01443043062494505</v>
+      </c>
+      <c r="T17">
+        <v>0.01443043062494505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3620916666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.086275</v>
+      </c>
+      <c r="I18">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="J18">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.996758</v>
+      </c>
+      <c r="O18">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P18">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q18">
+        <v>0.24100314405</v>
+      </c>
+      <c r="R18">
+        <v>2.16902829645</v>
+      </c>
+      <c r="S18">
+        <v>0.00205985632900508</v>
+      </c>
+      <c r="T18">
+        <v>0.00205985632900508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3620916666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.086275</v>
+      </c>
+      <c r="I19">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="J19">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.36825</v>
+      </c>
+      <c r="O19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q19">
+        <v>0.2858411965277778</v>
+      </c>
+      <c r="R19">
+        <v>2.57257076875</v>
+      </c>
+      <c r="S19">
+        <v>0.002443087620616159</v>
+      </c>
+      <c r="T19">
+        <v>0.002443087620616159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3620916666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.086275</v>
+      </c>
+      <c r="I20">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="J20">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.241735</v>
+      </c>
+      <c r="O20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q20">
+        <v>0.02917674301388889</v>
+      </c>
+      <c r="R20">
+        <v>0.2625906871250001</v>
+      </c>
+      <c r="S20">
+        <v>0.0002493739199702933</v>
+      </c>
+      <c r="T20">
+        <v>0.0002493739199702934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3620916666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.086275</v>
+      </c>
+      <c r="I21">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="J21">
+        <v>0.01970026114554822</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.16722</v>
+      </c>
+      <c r="N21">
+        <v>0.50166</v>
+      </c>
+      <c r="O21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q21">
+        <v>0.06054896850000001</v>
+      </c>
+      <c r="R21">
+        <v>0.5449407165000001</v>
+      </c>
+      <c r="S21">
+        <v>0.0005175126510116341</v>
+      </c>
+      <c r="T21">
+        <v>0.0005175126510116342</v>
       </c>
     </row>
   </sheetData>
